--- a/biology/Zoologie/Ernest_Edward_Austen/Ernest_Edward_Austen.xlsx
+++ b/biology/Zoologie/Ernest_Edward_Austen/Ernest_Edward_Austen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le major Ernest Edward Austen est un entomologiste britannique, né le 19 octobre 1867 à Londres et mort le 16 janvier 1938 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Ambrose Austen. Il fait ses études à Heidelberg en Allemagne. Austen se marie avec Cécile Mary NoPel Buchanan en 1905, celle-ci décède en 1932.
 Il entre au Natural History Museum de Londres en 1889 et est conservateur au département d’entomologie de 1927 à 1932. Il participe comme naturaliste au Brésil en 1895-1896 et à la première mission de l’école de médecine tropicale de Liverpool au Sierra Leone en 1899 sous la direction de Sir Ronald Ross (1857-1932).
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of News South Wales (Sydney) : viii + 380.</t>
